--- a/pubchem-xml-tool/src/main/resources/ExampleExcel.xlsx
+++ b/pubchem-xml-tool/src/main/resources/ExampleExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-15" windowWidth="14445" windowHeight="11985"/>
@@ -12,6 +12,7 @@
     <sheet name="TIDs" sheetId="3" r:id="rId3"/>
     <sheet name="Panel" sheetId="2" r:id="rId4"/>
     <sheet name="Source" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Categorized Comments" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Sources">Source!$A$1:$A$38</definedName>
@@ -19,7 +20,7 @@
     <definedName name="TidTypeOptions">#REF!</definedName>
     <definedName name="TidUnitOptions">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -29,7 +30,7 @@
     <author>scanny</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="292">
   <si>
     <t>TID Name</t>
   </si>
@@ -505,6 +506,18 @@
     <t xml:space="preserve"> Panel Target Name</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>External Reg Id</t>
+  </si>
+  <si>
+    <t>Comment Tag</t>
+  </si>
+  <si>
+    <t>Comment Value</t>
+  </si>
+  <si>
     <t>Serotonin 5ht2b (Qualifier)</t>
   </si>
   <si>
@@ -1042,6 +1055,15 @@
     <t>true</t>
   </si>
   <si>
+    <t>434953</t>
+  </si>
+  <si>
+    <t>Late-stage radioligand binding dose response assay to identify inhibitors of NADPH oxidase 1 (NOX1): PDSP screen Ki</t>
+  </si>
+  <si>
+    <t>NOX1_INH_RAD_96_Ki_PDSP Screen</t>
+  </si>
+  <si>
     <t>1 R03 MH083264-01A1</t>
   </si>
   <si>
@@ -1051,45 +1073,125 @@
     <t>screening</t>
   </si>
   <si>
-    <t>Assay Overview: 
-The purpose of this panel of radioligand binding assays performed by the NIMH Psychoactive Drug Screening Program (PDSP) is to determine Ki values for the NOX1 inhibitor compound CID 717880 in selected assays from the "Late-stage radioligand binding assay to identify inhibitors of NADPH oxidase 1 (NOX1): PDSP screen".
-Protocol Summary: 
-A solution of the compound to be tested is prepared as a 1 mg/ml stock in buffer or DMSO according to its solubility. A similar stock of a reference compound (positive control) is also prepared. Eleven dilutions (5X assay concentration) of the test and reference compounds are prepared by serial dilution: 0.05 nM, 0.5 nM, 1.5 nM, 5 nM, 15 nM, 50 nM, 150 nM, 500 nM, 1.5 uM, 5 uM, 50 uM (thus, the corresponding assay concentrations span from 10 pM to 10 uM and include semilog points in the range where high-to-moderate affinity ligands compete with radioligand for binding sites). 
-Radioligand is dispensed into the wells of a 96-well plate. (Typically, the assay concentration of radioligand is a value between one half the KD and the KD of a particular radioligand at its target). Then, duplicate 50 &amp;#956;l aliquots of the test and reference compound dilutions are added. Finally, crude membrane fractions of cells expressing recombinant receptor are dispensed into each well. The 250 &amp;#956;l reactions are incubated at room temperature and shielded from light (to prevent photolysis of light-sensitive ligands), then harvested by rapid filtration onto Whatman glass fiber filters. Filters are placed in scintillation tubes and allowed to dry overnight. The next day, scintillation cocktail is added to each tube. The tubes are capped, labeled, and counted by liquid scintillation counting.
-Raw data (dpm) representing total radioligand binding (i.e., specific + non-specific binding) are plotted as a function of the logarithm of the molar concentration of the competitor (i.e., test or reference compound). Non-linear regression of the normalized (i.e., percent radioligand binding compared to that observed in the absence of test or reference compound) raw data is performed in Prism 4.0 (GraphPad Software) using the built-in three parameter logistic model describing ligand competition binding to radioligand-labeled sites:
-y = bottom + ( ( top - bottom ) / ( 1 + 10x - logIC50 ) ) 
-where bottom equals the residual radioligand binding measured in the presence of 10 &amp;#956;M reference compound (i.e., non-specific binding) and top equals the total radioligand binding observed in the absence of competitor. The log IC50 (i.e., the log of the ligand concentration that reduces radioligand binding by 50%) is thus estimated from the data and used to obtain the Ki by applying the Cheng-Prusoff approximation: 
-Ki = IC50 / ( 1 + [ligand] / KD ) 
-where [ligand] equals the assay radioligand concentration and KD equals the affinity constant of the radioligand for the target receptor.
-A Ki of &amp;#8804; 10,000 is considered active, and a Ki of &gt; 10,000 is considered inactive.
-PubChem Activity Score and Outcome:
-List of Reagents:
-Reagents were provided by the NIMH Psychoactive Drug Screening Program.</t>
+    <t>Data Source (MLPCN Center Name): The Scripps Research Institute Molecular Screening Center (SRIMSC)</t>
+  </si>
+  <si>
+    <t>Center Affiliation: The Scripps Research Institute, TSRI</t>
+  </si>
+  <si>
+    <t>Assay Provider: Gary Bokoch, TSRI</t>
+  </si>
+  <si>
+    <t>Network: Molecular Libraries Probe Production Center Network (MLPCN)</t>
+  </si>
+  <si>
+    <t>Grant Proposal Number: 1 R03 MH083264-01A1</t>
+  </si>
+  <si>
+    <t>Grant Proposal PI: Gary Bokoch, TSRI</t>
+  </si>
+  <si>
+    <t>External Assay ID: NOX1_INH_RAD_96_Ki_PDSP Screen</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Data Source (MLPCN Center Name): The Scripps Research Institute Molecular Screening Center (SRIMSC)
-Center Affiliation: The Scripps Research Institute, TSRI
-Assay Provider: Gary Bokoch, TSRI
-Network: Molecular Libraries Probe Production Center Network (MLPCN)
-Grant Proposal Number: 1 R03 MH083264-01A1
-Grant Proposal PI: Gary Bokoch, TSRI
-External Assay ID: NOX1_INH_RAD_96_Ki_PDSP Screen
-Name: Late-stage radioligand binding dose response assay to identify inhibitors of NADPH oxidase 1 (NOX1): PDSP screen Ki
-Description: 
-Host defense mechanisms are diverse and include receptor-initiated signaling pathways, antibody and cytokine production, and the generation of reactive oxygen species (ROS) such as hydroxyl radical and hypochlorus acid to kill microorganisms (1). In activated phagocytic cells, the membrane integrated protein gp91phox serves as the catalytic cytochrome b subunit of the respiratory burst oxidase used to generate superoxide in an NADPH-dependent manner for host defense (2). Generation of ROS has also been identified in non-phagocytic cells (3). One important enzyme involved in ROS production in non-leukocyte tissues is NADPH oxidase 1 (NOX1), a homolog of gp91phox.  NOX1 is highly expressed in colon epithelial cells where it can generate ROS to interact with normal and pathogenic bacteria (3-5). However, excess ROS production is associated with damage to the intestinal mucosa, particularly in mucosal lesions of inflammatory bowel disease (IBD) (4). Studies showing that NOX1 levels are increased in human prostate cancer (6) and that cells overexpressing NOX1 have a transformed appearance, exhibit anchorage-independent growth, and induce vascularized tumor formation in athymic mice (3, 7), suggest that NOX1 may also play a role in angiogenesis, cell growth, and tumor pathogenesis (8, 9). The identification of inhibitors of NOX1 may lead to potential candidates for excess cell proliferation, cancer, and IBD.
-[References]
-Keywords: 
-NOX1, NADPH oxidase 1, cancer, inflammation, 96, inhibitor, inhibition, Ki, late stage, Psychoactive Drug Screening Program, PDSP, radioligand, radioligand binding assay, receptor, transporter, ion channel, NIMH, Scripps, The Scripps Research Institute Molecular Screening Center, SRIMSC, Molecular Libraries Probe Production Center Network, MLPCN.</t>
+    <t>Name: Late-stage radioligand binding dose response assay to identify inhibitors of NADPH oxidase 1 (NOX1): PDSP screen Ki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: </t>
+  </si>
+  <si>
+    <t>Host defense mechanisms are diverse and include receptor-initiated signaling pathways, antibody and cytokine production, and the generation of reactive oxygen species (ROS) such as hydroxyl radical and hypochlorus acid to kill microorganisms (1). In activated phagocytic cells, the membrane integrated protein gp91phox serves as the catalytic cytochrome b subunit of the respiratory burst oxidase used to generate superoxide in an NADPH-dependent manner for host defense (2). Generation of ROS has also been identified in non-phagocytic cells (3). One important enzyme involved in ROS production in non-leukocyte tissues is NADPH oxidase 1 (NOX1), a homolog of gp91phox.  NOX1 is highly expressed in colon epithelial cells where it can generate ROS to interact with normal and pathogenic bacteria (3-5). However, excess ROS production is associated with damage to the intestinal mucosa, particularly in mucosal lesions of inflammatory bowel disease (IBD) (4). Studies showing that NOX1 levels are increased in human prostate cancer (6) and that cells overexpressing NOX1 have a transformed appearance, exhibit anchorage-independent growth, and induce vascularized tumor formation in athymic mice (3, 7), suggest that NOX1 may also play a role in angiogenesis, cell growth, and tumor pathogenesis (8, 9). The identification of inhibitors of NOX1 may lead to potential candidates for excess cell proliferation, cancer, and IBD.</t>
+  </si>
+  <si>
+    <t>References:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Takeya, R. and Sumimoto, H., Molecular mechanism for activation of superoxide-producing NADPH oxidases. Mol Cells, 2003. 16(3): p. 271-7. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Cheng, G., Cao, Z., Xu, X., van Meir, E.G., and Lambeth, J.D., Homologs of gp91phox: cloning and tissue expression of Nox3, Nox4, and Nox5. Gene, 2001. 269(1-2): p. 131-40. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Suh, Y.A., Arnold, R.S., Lassegue, B., Shi, J., Xu, X., Sorescu, D., Chung, A.B., Griendling, K.K., and Lambeth, J.D., Cell transformation by the superoxide-generating oxidase Mox1. Nature, 1999. 401(6748): p. 79-82. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Szanto, I., Rubbia-Brandt, L., Kiss, P., Steger, K., Banfi, B., Kovari, E., Herrmann, F., Hadengue, A., and Krause, K.H., Expression of NOX1, a superoxide-generating NADPH oxidase, in colon cancer and inflammatory bowel disease. J Pathol, 2005. 207(2): p. 164-76. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Rokutan, K., Kawahara, T., Kuwano, Y., Tominaga, K., Nishida, K., and Teshima-Kondo, S., Nox enzymes and oxidative stress in the immunopathology of the gastrointestinal tract. Semin Immunopathol, 2008. 30(3): p. 315-27. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Lim, S.D., Sun, C., Lambeth, J.D., Marshall, F., Amin, M., Chung, L., Petros, J.A., and Arnold, R.S., Increased Nox1 and hydrogen peroxide in prostate cancer. Prostate, 2005. 62(2): p. 200-7. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Arnold, R.S., Shi, J., Murad, E., Whalen, A.M., Sun, C.Q., Polavarapu, R., Parthasarathy, S., Petros, J.A., and Lambeth, J.D., Hydrogen peroxide mediates the cell growth and transformation caused by the mitogenic oxidase Nox1. Proc Natl Acad Sci U S A, 2001. 98(10): p. 5550-5. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Ushio-Fukai, M. and Nakamura, Y., Reactive oxygen species and angiogenesis: NADPH oxidase as target for cancer therapy. Cancer Lett, 2008. 266(1): p. 37-52. </t>
+  </si>
+  <si>
+    <t>9. Kobayashi, S., Nojima, Y., Shibuya, M., and Maru, Y., Nox1 regulates apoptosis and potentially stimulates branching morphogenesis in sinusoidal endothelial cells. Exp Cell Res, 2004. 300(2): p. 455-62.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords: </t>
+  </si>
+  <si>
+    <t>NOX1, NADPH oxidase 1, cancer, inflammation, 96, inhibitor, inhibition, Ki, late stage, Psychoactive Drug Screening Program, PDSP, radioligand, radioligand binding assay, receptor, transporter, ion channel, NIMH, Scripps, The Scripps Research Institute Molecular Screening Center, SRIMSC, Molecular Libraries Probe Production Center Network, MLPCN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assay Overview: </t>
+  </si>
+  <si>
+    <t>The purpose of this panel of radioligand binding assays performed by the NIMH Psychoactive Drug Screening Program (PDSP) is to determine Ki values for the NOX1 inhibitor compound CID 717880 in selected assays from the "Late-stage radioligand binding assay to identify inhibitors of NADPH oxidase 1 (NOX1): PDSP screen".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol Summary: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A solution of the compound to be tested is prepared as a 1 mg/ml stock in buffer or DMSO according to its solubility. A similar stock of a reference compound (positive control) is also prepared. Eleven dilutions (5X assay concentration) of the test and reference compounds are prepared by serial dilution: 0.05 nM, 0.5 nM, 1.5 nM, 5 nM, 15 nM, 50 nM, 150 nM, 500 nM, 1.5 uM, 5 uM, 50 uM (thus, the corresponding assay concentrations span from 10 pM to 10 uM and include semilog points in the range where high-to-moderate affinity ligands compete with radioligand for binding sites). </t>
+  </si>
+  <si>
+    <t>Radioligand is dispensed into the wells of a 96-well plate. (Typically, the assay concentration of radioligand is a value between one half the KD and the KD of a particular radioligand at its target). Then, duplicate 50 &amp;#956;l aliquots of the test and reference compound dilutions are added. Finally, crude membrane fractions of cells expressing recombinant receptor are dispensed into each well. The 250 &amp;#956;l reactions are incubated at room temperature and shielded from light (to prevent photolysis of light-sensitive ligands), then harvested by rapid filtration onto Whatman glass fiber filters. Filters are placed in scintillation tubes and allowed to dry overnight. The next day, scintillation cocktail is added to each tube. The tubes are capped, labeled, and counted by liquid scintillation counting.</t>
+  </si>
+  <si>
+    <t>Raw data (dpm) representing total radioligand binding (i.e., specific + non-specific binding) are plotted as a function of the logarithm of the molar concentration of the competitor (i.e., test or reference compound). Non-linear regression of the normalized (i.e., percent radioligand binding compared to that observed in the absence of test or reference compound) raw data is performed in Prism 4.0 (GraphPad Software) using the built-in three parameter logistic model describing ligand competition binding to radioligand-labeled sites:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y = bottom + ( ( top - bottom ) / ( 1 + 10x - logIC50 ) ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">where bottom equals the residual radioligand binding measured in the presence of 10 &amp;#956;M reference compound (i.e., non-specific binding) and top equals the total radioligand binding observed in the absence of competitor. The log IC50 (i.e., the log of the ligand concentration that reduces radioligand binding by 50%) is thus estimated from the data and used to obtain the Ki by applying the Cheng-Prusoff approximation: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ki = IC50 / ( 1 + [ligand] / KD ) </t>
+  </si>
+  <si>
+    <t>where [ligand] equals the assay radioligand concentration and KD equals the affinity constant of the radioligand for the target receptor.</t>
+  </si>
+  <si>
+    <t>PubChem Activity Score and Outcome:</t>
+  </si>
+  <si>
+    <t>List of Reagents:</t>
+  </si>
+  <si>
+    <t>Reagents were provided by the NIMH Psychoactive Drug Screening Program.</t>
+  </si>
+  <si>
+    <t>A Ki of &lt;= 10,000 is considered active, and a Ki of &gt; 10,000 is considered inactive.</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,8 +1291,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1254,12 +1358,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1338,6 +1448,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1372,6 +1483,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1547,101 +1659,643 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="117.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="21">
-        <v>434953</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="B4" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B6" s="5">
         <v>40408</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="276" customHeight="1">
-      <c r="A7" s="9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="295.5" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="191.25" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="B38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>248</v>
-      </c>
+      <c r="B67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Option not in list." prompt="Choose an option from the list." sqref="B5">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Option not in list." prompt="Choose an option from the list." sqref="B7">
       <formula1>"screening, confirmatory, summary, other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Option not in list." prompt="Choose an option from the list." sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Option not in list." prompt="Choose an option from the list." sqref="B5">
       <formula1>"MLSCN,MLPCN,MLSCN (Assay Provider),MLPCN (Assay Provider), Literature (Extracted), Literature (Author), Literature (Publisher),RNAi Global Initiative,Assay Vendor,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Source not in the list" error="Source is not in the list.  Once xml is created, if it will not upload into PubChem, then double check source name." promptTitle="Sources" prompt="Choose a source from the list.  If the source is not in the list type it in." sqref="B6">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Source not in the list" error="Source is not in the list.  Once xml is created, if it will not upload into PubChem, then double check source name." promptTitle="Sources" prompt="Choose a source from the list.  If the source is not in the list type it in." sqref="B8">
       <formula1>Sources</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A92">
+      <formula1>"Description, Protocol, Comment"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,7 +2305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -1659,7 +2313,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="8" bestFit="1" customWidth="1"/>
@@ -1667,7 +2321,7 @@
     <col min="4" max="4" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1681,292 +2335,292 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
@@ -1996,7 +2650,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="117.42578125" style="8" bestFit="1" customWidth="1"/>
@@ -2008,7 +2662,7 @@
     <col min="8" max="8" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="15.75">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2034,994 +2688,994 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3046,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -3054,7 +3708,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="4" bestFit="1" customWidth="1"/>
@@ -3064,7 +3718,7 @@
     <col min="6" max="6" width="70" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
@@ -3086,304 +3740,304 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>141</v>
-      </c>
       <c r="F3" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="D4" s="19" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3399,204 +4053,204 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="117.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -3615,4 +4269,31 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>